--- a/Training Topics (1).xlsx
+++ b/Training Topics (1).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\NU\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="7545"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="163">
   <si>
     <t>About GIT</t>
   </si>
@@ -330,9 +335,6 @@
     <t>UNIX</t>
   </si>
   <si>
-    <t>Commands</t>
-  </si>
-  <si>
     <t>Jenkins</t>
   </si>
   <si>
@@ -499,16 +501,46 @@
   </si>
   <si>
     <t>Environment env</t>
+  </si>
+  <si>
+    <t>List Commands</t>
+  </si>
+  <si>
+    <t>Directory Commands</t>
+  </si>
+  <si>
+    <t>File Permissions and notations</t>
+  </si>
+  <si>
+    <t>Creating and editing files</t>
+  </si>
+  <si>
+    <t>tail and grep commands</t>
+  </si>
+  <si>
+    <t>RESTful Services</t>
+  </si>
+  <si>
+    <t>Agile</t>
+  </si>
+  <si>
+    <t>Agile Vs SDLC</t>
+  </si>
+  <si>
+    <t>Agile terminology</t>
+  </si>
+  <si>
+    <t>Scrum, Kanban and Scrumban</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -669,6 +701,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -678,13 +713,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -959,28 +994,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C162"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160:XFD160"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129:C169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -991,14 +1026,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1007,28 +1042,28 @@
         <v>43451</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1037,56 +1072,56 @@
         <v>43451</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1095,56 +1130,56 @@
         <v>43452</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1153,63 +1188,63 @@
         <v>43452</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -1218,35 +1253,35 @@
         <v>43453</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="7"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="7"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="7"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>31</v>
       </c>
@@ -1255,49 +1290,49 @@
         <v>43453</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="7"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="7"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="7"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="7"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="7"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>32</v>
       </c>
@@ -1306,42 +1341,42 @@
         <v>43454</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="7"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C49" s="7"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>33</v>
       </c>
@@ -1350,42 +1385,42 @@
         <v>43454</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C51" s="7"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C52" s="7"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C54" s="7"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C55" s="7"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>34</v>
       </c>
@@ -1394,49 +1429,49 @@
         <v>43454</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C58" s="7"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="13" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="15"/>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>60</v>
       </c>
@@ -1445,42 +1480,42 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="7"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C65" s="7"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C66" s="7"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="11"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C68" s="7"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>65</v>
       </c>
@@ -1489,28 +1524,28 @@
         <v>43456</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="12" t="s">
         <v>66</v>
       </c>
       <c r="C70" s="7"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="12" t="s">
         <v>68</v>
       </c>
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>69</v>
       </c>
@@ -1519,42 +1554,42 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="12" t="s">
         <v>72</v>
       </c>
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="13" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="15"/>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="B78" s="15"/>
+      <c r="C78" s="16"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>75</v>
       </c>
@@ -1563,35 +1598,35 @@
         <v>43459</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C83" s="11"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>79</v>
       </c>
@@ -1600,35 +1635,35 @@
         <v>43460</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="12" t="s">
         <v>81</v>
       </c>
       <c r="C86" s="7"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="13" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="15"/>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="B88" s="15"/>
+      <c r="C88" s="16"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>84</v>
       </c>
@@ -1637,14 +1672,14 @@
         <v>43461</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C90" s="7"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>86</v>
       </c>
@@ -1653,28 +1688,28 @@
         <v>43462</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C93" s="11"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>89</v>
       </c>
@@ -1683,21 +1718,21 @@
         <v>43463</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C96" s="7"/>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="12" t="s">
         <v>91</v>
       </c>
       <c r="C97" s="7"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>92</v>
       </c>
@@ -1706,28 +1741,28 @@
         <v>43467</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="12" t="s">
         <v>93</v>
       </c>
       <c r="C99" s="7"/>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="12" t="s">
         <v>94</v>
       </c>
       <c r="C100" s="7"/>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="13" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="15"/>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="B101" s="15"/>
+      <c r="C101" s="16"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>95</v>
       </c>
@@ -1736,361 +1771,479 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C103" s="7"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+      <c r="B104" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C104" s="7"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+      <c r="B105" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C105" s="7"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+      <c r="B106" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C106" s="7"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="B107" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107" s="7"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C103" s="7"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="13" t="s">
+      <c r="B108" s="15"/>
+      <c r="C108" s="16"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="7">
+        <v>43474</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+      <c r="B110" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="15"/>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="7">
-        <v>43474</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="2"/>
-      <c r="B106" s="4" t="s">
+      <c r="C110" s="7"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="10"/>
+      <c r="B111" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C106" s="7"/>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="10"/>
-      <c r="B107" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C107" s="11"/>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="2"/>
-      <c r="B108" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C108" s="7"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="7">
-        <v>43477</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="2"/>
-      <c r="B110" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C110" s="7"/>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="2"/>
-      <c r="B111" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C111" s="7"/>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="C111" s="11"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C112" s="7"/>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="13" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B113" s="12"/>
+      <c r="C113" s="7">
+        <v>43477</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="B114" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C114" s="7"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C115" s="7"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+      <c r="B116" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C116" s="7"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B117" s="15"/>
+      <c r="C117" s="16"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>158</v>
+      </c>
+      <c r="B118" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="15"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="B114" s="9" t="s">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="B115" s="9" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="B116" s="9" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B121" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="B117" s="9" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="B118" s="9" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B123" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="B119" s="16" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B124" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="B120" s="16" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B125" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="B121" s="16" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B126" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="B122" s="16" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B127" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="B123" s="16" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B128" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="B124" s="16" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B129" s="17"/>
+      <c r="C129" s="17"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+      <c r="B130" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C130" s="7"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+      <c r="B131" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C131" s="7"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+      <c r="B132" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C132" s="7"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="17" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="13" t="s">
+      <c r="B133" s="17"/>
+      <c r="C133" s="17"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+      <c r="B134" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="15"/>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="B127" s="17" t="s">
+      <c r="C134" s="7"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+      <c r="B135" s="18" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="B128" s="17" t="s">
+      <c r="C135" s="7"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+      <c r="B136" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="B129" s="1" t="s">
+      <c r="C136" s="7"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="17" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="13" t="s">
+      <c r="B137" s="17"/>
+      <c r="C137" s="17"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+      <c r="B138" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="15"/>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="B131" s="1" t="s">
+      <c r="C138" s="7"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+      <c r="B139" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="B132" s="1" t="s">
+      <c r="C139" s="7"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="17" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="13" t="s">
+      <c r="B140" s="17"/>
+      <c r="C140" s="17"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="2"/>
+      <c r="B141" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="15"/>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="B134" s="1" t="s">
+      <c r="C141" s="7"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+      <c r="B142" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="B135" s="1" t="s">
+      <c r="C142" s="7"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+      <c r="B143" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="B136" s="1" t="s">
+      <c r="C143" s="7"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+      <c r="B144" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="B137" s="1" t="s">
+      <c r="C144" s="7"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="17" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="13" t="s">
+      <c r="B145" s="17"/>
+      <c r="C145" s="17"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+      <c r="B146" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B138" s="14"/>
-      <c r="C138" s="15"/>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="B139" s="1" t="s">
+      <c r="C146" s="7"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
+      <c r="B147" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="B140" s="1" t="s">
+      <c r="C147" s="7"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+      <c r="B148" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="B141" s="1" t="s">
+      <c r="C148" s="7"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="17" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="13" t="s">
+      <c r="B149" s="17"/>
+      <c r="C149" s="17"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+      <c r="B150" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B142" s="14"/>
-      <c r="C142" s="15"/>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="B143" s="18" t="s">
+      <c r="C150" s="7"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+      <c r="B151" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="B144" s="8" t="s">
+      <c r="C151" s="7"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+      <c r="B152" s="7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="B145" s="8" t="s">
+      <c r="C152" s="7"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="2"/>
+      <c r="B153" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="B146" s="8" t="s">
+      <c r="C153" s="7"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="2"/>
+      <c r="B154" s="7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="B147" s="8" t="s">
+      <c r="C154" s="7"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="2"/>
+      <c r="B155" s="7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="B148" s="8" t="s">
+      <c r="C155" s="7"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="2"/>
+      <c r="B156" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="B149" s="8" t="s">
+      <c r="C156" s="7"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+      <c r="B157" s="7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="B150" s="8" t="s">
+      <c r="C157" s="7"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+      <c r="B158" s="7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="B151" s="8" t="s">
+      <c r="C158" s="7"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+      <c r="B159" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="B152" s="8" t="s">
+      <c r="C159" s="7"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="17" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="13" t="s">
+      <c r="B160" s="17"/>
+      <c r="C160" s="17"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+      <c r="B161" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B153" s="14"/>
-      <c r="C153" s="15"/>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="B154" s="1" t="s">
+      <c r="C161" s="7"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="17" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="13" t="s">
+      <c r="B162" s="17"/>
+      <c r="C162" s="17"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+      <c r="B163" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B155" s="14"/>
-      <c r="C155" s="15"/>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="B156" s="1" t="s">
+      <c r="C163" s="7"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+      <c r="B164" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="B157" s="1" t="s">
+      <c r="C164" s="7"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2"/>
+      <c r="B165" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="B158" s="1" t="s">
+      <c r="C165" s="7"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+      <c r="B166" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="B159" s="1" t="s">
+      <c r="C166" s="7"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="17" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="13" t="s">
+      <c r="B167" s="17"/>
+      <c r="C167" s="17"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2"/>
+      <c r="B168" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B160" s="14"/>
-      <c r="C160" s="15"/>
-    </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="1" t="s">
+      <c r="C168" s="7"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="2"/>
+      <c r="B169" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="C169" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A138:C138"/>
+  <mergeCells count="17">
     <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A108:C108"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="A78:C78"/>
     <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A129:C129"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
